--- a/Code/Results/Cases/Case_9_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01657851593691</v>
+        <v>1.015347677784705</v>
       </c>
       <c r="D2">
-        <v>1.035925377467014</v>
+        <v>1.034168116635668</v>
       </c>
       <c r="E2">
-        <v>1.030226859040439</v>
+        <v>1.029161957179209</v>
       </c>
       <c r="F2">
-        <v>1.040383720306831</v>
+        <v>1.039182291855239</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049292744673756</v>
+        <v>1.048635540190962</v>
       </c>
       <c r="J2">
-        <v>1.038274425972039</v>
+        <v>1.037078836183807</v>
       </c>
       <c r="K2">
-        <v>1.046905914117553</v>
+        <v>1.045171105864441</v>
       </c>
       <c r="L2">
-        <v>1.041280554325208</v>
+        <v>1.040229436310379</v>
       </c>
       <c r="M2">
-        <v>1.051307717251519</v>
+        <v>1.050121465443977</v>
       </c>
       <c r="N2">
-        <v>1.015941836371508</v>
+        <v>1.016552030785048</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049178955738714</v>
+        <v>1.048240127503703</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044236813529871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043018882101632</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023843758689625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021115931935775</v>
+        <v>1.019590270136207</v>
       </c>
       <c r="D3">
-        <v>1.039040401397888</v>
+        <v>1.036971073924384</v>
       </c>
       <c r="E3">
-        <v>1.03379246460282</v>
+        <v>1.032467299300765</v>
       </c>
       <c r="F3">
-        <v>1.043686743181346</v>
+        <v>1.042240265462056</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050175512713474</v>
+        <v>1.049379400930772</v>
       </c>
       <c r="J3">
-        <v>1.041047051619523</v>
+        <v>1.039560766605495</v>
       </c>
       <c r="K3">
-        <v>1.049196981361417</v>
+        <v>1.047151786127111</v>
       </c>
       <c r="L3">
-        <v>1.044010478305325</v>
+        <v>1.042700948046266</v>
       </c>
       <c r="M3">
-        <v>1.053789568683688</v>
+        <v>1.052359762086468</v>
       </c>
       <c r="N3">
-        <v>1.016934680512573</v>
+        <v>1.017253207638712</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051143148875079</v>
+        <v>1.050011568353457</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045854130968842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044416453475137</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02428873615376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023995991410459</v>
+        <v>1.022285956945822</v>
       </c>
       <c r="D4">
-        <v>1.041020613396902</v>
+        <v>1.038755089132675</v>
       </c>
       <c r="E4">
-        <v>1.036061556584045</v>
+        <v>1.034573430628678</v>
       </c>
       <c r="F4">
-        <v>1.045789878304686</v>
+        <v>1.044189722659873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05072545318134</v>
+        <v>1.049841992404978</v>
       </c>
       <c r="J4">
-        <v>1.042805176496239</v>
+        <v>1.041136269190313</v>
       </c>
       <c r="K4">
-        <v>1.05064793458095</v>
+        <v>1.048407235729995</v>
       </c>
       <c r="L4">
-        <v>1.045743392326388</v>
+        <v>1.044271750592708</v>
       </c>
       <c r="M4">
-        <v>1.055365369452707</v>
+        <v>1.053782538771564</v>
       </c>
       <c r="N4">
-        <v>1.017563540150486</v>
+        <v>1.017697993337612</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052390270429157</v>
+        <v>1.05113758525154</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046880951499319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045305119977386</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02456829815971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.025199069516731</v>
+        <v>1.023412455730884</v>
       </c>
       <c r="D5">
-        <v>1.04185061533349</v>
+        <v>1.039503481834247</v>
       </c>
       <c r="E5">
-        <v>1.037011515132691</v>
+        <v>1.035455649704584</v>
       </c>
       <c r="F5">
-        <v>1.046670614026939</v>
+        <v>1.045006567169793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050954535972876</v>
+        <v>1.05003468187424</v>
       </c>
       <c r="J5">
-        <v>1.043541050997261</v>
+        <v>1.041796113359535</v>
       </c>
       <c r="K5">
-        <v>1.051256262112568</v>
+        <v>1.048934162911807</v>
       </c>
       <c r="L5">
-        <v>1.046468927276134</v>
+        <v>1.044929831441085</v>
       </c>
       <c r="M5">
-        <v>1.056025281603366</v>
+        <v>1.054378769697381</v>
       </c>
       <c r="N5">
-        <v>1.017827367013159</v>
+        <v>1.017884771299824</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052912538037249</v>
+        <v>1.051609455073468</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047318183917019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045685509399854</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024685690324056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025406700735796</v>
+        <v>1.023606671535659</v>
       </c>
       <c r="D6">
-        <v>1.041996505034593</v>
+        <v>1.039635203692478</v>
       </c>
       <c r="E6">
-        <v>1.037176428669787</v>
+        <v>1.035608677388601</v>
       </c>
       <c r="F6">
-        <v>1.046823510207952</v>
+        <v>1.045148307790265</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050996231592444</v>
+        <v>1.050069988193161</v>
       </c>
       <c r="J6">
-        <v>1.043670352482082</v>
+        <v>1.041912094701677</v>
       </c>
       <c r="K6">
-        <v>1.051364908603113</v>
+        <v>1.049028677059365</v>
       </c>
       <c r="L6">
-        <v>1.046596155297369</v>
+        <v>1.045045223234231</v>
       </c>
       <c r="M6">
-        <v>1.056141095812771</v>
+        <v>1.054483464652151</v>
       </c>
       <c r="N6">
-        <v>1.017874676013317</v>
+        <v>1.017918295832687</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053004195669903</v>
+        <v>1.051692312854331</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047403663319814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045761867772282</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024707514962907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024029352160628</v>
+        <v>1.02232765187442</v>
       </c>
       <c r="D7">
-        <v>1.04105062235286</v>
+        <v>1.03879089195548</v>
       </c>
       <c r="E7">
-        <v>1.036090298937376</v>
+        <v>1.03460940003926</v>
       </c>
       <c r="F7">
-        <v>1.045816458835453</v>
+        <v>1.04422209566954</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050738052108453</v>
+        <v>1.049857370182512</v>
       </c>
       <c r="J7">
-        <v>1.042831863272128</v>
+        <v>1.041171070788735</v>
       </c>
       <c r="K7">
-        <v>1.050674771739858</v>
+        <v>1.048439793108301</v>
       </c>
       <c r="L7">
-        <v>1.045768954878069</v>
+        <v>1.044304453424049</v>
       </c>
       <c r="M7">
-        <v>1.055388836098816</v>
+        <v>1.053811728254098</v>
       </c>
       <c r="N7">
-        <v>1.017575738853865</v>
+        <v>1.017736310247748</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052408842406078</v>
+        <v>1.051160686435077</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046919847645526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045350065381131</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02457874400441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018145778364701</v>
+        <v>1.01684606985631</v>
       </c>
       <c r="D8">
-        <v>1.03700942533651</v>
+        <v>1.03516967849136</v>
       </c>
       <c r="E8">
-        <v>1.031460358518951</v>
+        <v>1.030334531047235</v>
       </c>
       <c r="F8">
-        <v>1.041525962026896</v>
+        <v>1.040263823428191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04960763059791</v>
+        <v>1.048914771216949</v>
       </c>
       <c r="J8">
-        <v>1.039240392101508</v>
+        <v>1.037976638780461</v>
       </c>
       <c r="K8">
-        <v>1.047710372518104</v>
+        <v>1.045893429988573</v>
       </c>
       <c r="L8">
-        <v>1.042230396731634</v>
+        <v>1.041118700107845</v>
       </c>
       <c r="M8">
-        <v>1.052171350018232</v>
+        <v>1.050924676924706</v>
       </c>
       <c r="N8">
-        <v>1.016291363159195</v>
+        <v>1.016889271567766</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049862454753308</v>
+        <v>1.048875808533467</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044828347062296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043554610783126</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024012530074364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007299279920492</v>
+        <v>1.006728190761876</v>
       </c>
       <c r="D9">
-        <v>1.029574591241463</v>
+        <v>1.028497449723523</v>
       </c>
       <c r="E9">
-        <v>1.022969847868642</v>
+        <v>1.022485889243456</v>
       </c>
       <c r="F9">
-        <v>1.033667712726384</v>
+        <v>1.033007737085649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047432956913394</v>
+        <v>1.047079920637915</v>
       </c>
       <c r="J9">
-        <v>1.032596888928178</v>
+        <v>1.032045576107883</v>
       </c>
       <c r="K9">
-        <v>1.042205396164427</v>
+        <v>1.041144496897739</v>
       </c>
       <c r="L9">
-        <v>1.035700932373117</v>
+        <v>1.035224386664781</v>
       </c>
       <c r="M9">
-        <v>1.046237189982929</v>
+        <v>1.045587061021963</v>
       </c>
       <c r="N9">
-        <v>1.013905741761627</v>
+        <v>1.01522022493327</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045166010062653</v>
+        <v>1.04465147970191</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040932851546616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040193413840409</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02292994502122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998367152833667</v>
+        <v>0.9998280639984595</v>
       </c>
       <c r="D10">
-        <v>1.024505500171737</v>
+        <v>1.02399738096516</v>
       </c>
       <c r="E10">
-        <v>1.017193441379694</v>
+        <v>1.017202593880772</v>
       </c>
       <c r="F10">
-        <v>1.028358936513188</v>
+        <v>1.02815617491248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045911583379932</v>
+        <v>1.045812624249563</v>
       </c>
       <c r="J10">
-        <v>1.028056813115383</v>
+        <v>1.028048505237742</v>
       </c>
       <c r="K10">
-        <v>1.038445961166611</v>
+        <v>1.037946463963038</v>
       </c>
       <c r="L10">
-        <v>1.031259050271474</v>
+        <v>1.031268044670286</v>
       </c>
       <c r="M10">
-        <v>1.042234368171513</v>
+        <v>1.042035012643917</v>
       </c>
       <c r="N10">
-        <v>1.012285975910804</v>
+        <v>1.014218386577272</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042049274904889</v>
+        <v>1.041891508445145</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038291444312483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037950638099701</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022202112662215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9973501847321249</v>
+        <v>0.9975458916849517</v>
       </c>
       <c r="D11">
-        <v>1.023013874895771</v>
+        <v>1.022701894559963</v>
       </c>
       <c r="E11">
-        <v>1.015510903250447</v>
+        <v>1.015692939673851</v>
       </c>
       <c r="F11">
-        <v>1.027058679104073</v>
+        <v>1.027016929276266</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045597781371526</v>
+        <v>1.045577914670304</v>
       </c>
       <c r="J11">
-        <v>1.026833616121061</v>
+        <v>1.027021122017074</v>
       </c>
       <c r="K11">
-        <v>1.037514453142445</v>
+        <v>1.037208019992702</v>
       </c>
       <c r="L11">
-        <v>1.030146117195617</v>
+        <v>1.030324856479786</v>
       </c>
       <c r="M11">
-        <v>1.041487733902258</v>
+        <v>1.041446718598223</v>
       </c>
       <c r="N11">
-        <v>1.011960505519163</v>
+        <v>1.014240514545569</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041892896720024</v>
+        <v>1.041860454115059</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037665552988698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037464460457668</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022108984529525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.996730529798433</v>
+        <v>0.9969574188473039</v>
       </c>
       <c r="D12">
-        <v>1.022737117988457</v>
+        <v>1.022454865988569</v>
       </c>
       <c r="E12">
-        <v>1.015209953452904</v>
+        <v>1.015413669909775</v>
       </c>
       <c r="F12">
-        <v>1.026961849042136</v>
+        <v>1.026943528364573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045619422015878</v>
+        <v>1.045604444879761</v>
       </c>
       <c r="J12">
-        <v>1.026673906925719</v>
+        <v>1.026891106703761</v>
       </c>
       <c r="K12">
-        <v>1.037441301005281</v>
+        <v>1.037164150264809</v>
       </c>
       <c r="L12">
-        <v>1.030051443158007</v>
+        <v>1.03025140860175</v>
       </c>
       <c r="M12">
-        <v>1.04159011186071</v>
+        <v>1.041572118662257</v>
       </c>
       <c r="N12">
-        <v>1.011992608064718</v>
+        <v>1.014367479439953</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042299078054293</v>
+        <v>1.042284850436298</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037613832413713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037433443981413</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022153655972141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9975317255011877</v>
+        <v>0.9976385527342347</v>
       </c>
       <c r="D13">
-        <v>1.023402619077194</v>
+        <v>1.023008069329101</v>
       </c>
       <c r="E13">
-        <v>1.015975272445264</v>
+        <v>1.016068440753471</v>
       </c>
       <c r="F13">
-        <v>1.027812949856822</v>
+        <v>1.027699147801371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0459177905635</v>
+        <v>1.045843405010269</v>
       </c>
       <c r="J13">
-        <v>1.02734791109355</v>
+        <v>1.027450202604632</v>
       </c>
       <c r="K13">
-        <v>1.038052212006061</v>
+        <v>1.037664758317069</v>
       </c>
       <c r="L13">
-        <v>1.030759651930195</v>
+        <v>1.030851113589218</v>
       </c>
       <c r="M13">
-        <v>1.042383703295988</v>
+        <v>1.042271924539047</v>
       </c>
       <c r="N13">
-        <v>1.012314434626911</v>
+        <v>1.014553073337612</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043202274216257</v>
+        <v>1.043113910352574</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038043280521251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037784655852912</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022312791079099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987363914016165</v>
+        <v>0.9986921556689743</v>
       </c>
       <c r="D14">
-        <v>1.024296454672559</v>
+        <v>1.02376036978604</v>
       </c>
       <c r="E14">
-        <v>1.016993891041002</v>
+        <v>1.016951455954694</v>
       </c>
       <c r="F14">
-        <v>1.02883834720693</v>
+        <v>1.028605196886697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046252183661305</v>
+        <v>1.046108147983303</v>
       </c>
       <c r="J14">
-        <v>1.028197561953765</v>
+        <v>1.028155175868923</v>
       </c>
       <c r="K14">
-        <v>1.038790661903024</v>
+        <v>1.038264093047033</v>
       </c>
       <c r="L14">
-        <v>1.031618847304528</v>
+        <v>1.03157717913397</v>
       </c>
       <c r="M14">
-        <v>1.043252447015863</v>
+        <v>1.043023386552415</v>
       </c>
       <c r="N14">
-        <v>1.012671139715336</v>
+        <v>1.014711682004509</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044061763756026</v>
+        <v>1.043880710092272</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038566803582442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038209950541529</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022477026963298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9993468990737342</v>
+        <v>0.9992335584631113</v>
       </c>
       <c r="D15">
-        <v>1.02472879767962</v>
+        <v>1.024127779866815</v>
       </c>
       <c r="E15">
-        <v>1.017484237897494</v>
+        <v>1.017380675491251</v>
       </c>
       <c r="F15">
-        <v>1.029308753608396</v>
+        <v>1.029021155236101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04639858508131</v>
+        <v>1.04622395097914</v>
       </c>
       <c r="J15">
-        <v>1.028595619556212</v>
+        <v>1.028486974976609</v>
       </c>
       <c r="K15">
-        <v>1.039129537580131</v>
+        <v>1.038539104972754</v>
       </c>
       <c r="L15">
-        <v>1.032013652145285</v>
+        <v>1.031911946422105</v>
       </c>
       <c r="M15">
-        <v>1.043629356319294</v>
+        <v>1.043346762986225</v>
       </c>
       <c r="N15">
-        <v>1.012825344944412</v>
+        <v>1.014769614271995</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044397094894649</v>
+        <v>1.044173733685429</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038812241829732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038410801879731</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022545616213634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002358120916278</v>
+        <v>1.001951998494163</v>
       </c>
       <c r="D16">
-        <v>1.026754210552893</v>
+        <v>1.025874241727426</v>
       </c>
       <c r="E16">
-        <v>1.019788136148917</v>
+        <v>1.019429951163373</v>
       </c>
       <c r="F16">
-        <v>1.031417886611488</v>
+        <v>1.030899232803007</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047001856726495</v>
+        <v>1.046703043796334</v>
       </c>
       <c r="J16">
-        <v>1.030402003730869</v>
+        <v>1.030011845283529</v>
       </c>
       <c r="K16">
-        <v>1.040621336124968</v>
+        <v>1.039756178346078</v>
       </c>
       <c r="L16">
-        <v>1.033773414124246</v>
+        <v>1.033421360758607</v>
       </c>
       <c r="M16">
-        <v>1.045207059619671</v>
+        <v>1.044697030128598</v>
       </c>
       <c r="N16">
-        <v>1.013453669435734</v>
+        <v>1.014974234515301</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045605529690625</v>
+        <v>1.045202391793196</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039870133142264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039274748663783</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022811471577445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004037752821528</v>
+        <v>1.003499467257266</v>
       </c>
       <c r="D17">
-        <v>1.027840431339442</v>
+        <v>1.026830673359207</v>
       </c>
       <c r="E17">
-        <v>1.021022839373446</v>
+        <v>1.020551562499593</v>
       </c>
       <c r="F17">
-        <v>1.032495523037295</v>
+        <v>1.031871531949336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047286882379572</v>
+        <v>1.046933711765728</v>
       </c>
       <c r="J17">
-        <v>1.031341645572021</v>
+        <v>1.030823827163079</v>
       </c>
       <c r="K17">
-        <v>1.041377312126328</v>
+        <v>1.04038406839281</v>
       </c>
       <c r="L17">
-        <v>1.034672036245072</v>
+        <v>1.034208594813792</v>
       </c>
       <c r="M17">
-        <v>1.045956807529874</v>
+        <v>1.045342898917464</v>
       </c>
       <c r="N17">
-        <v>1.01374843240408</v>
+        <v>1.015078953940952</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046069617200915</v>
+        <v>1.045584322959769</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040407202099191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039721502555342</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022931369874395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004709320874447</v>
+        <v>1.004149950003581</v>
       </c>
       <c r="D18">
-        <v>1.028193000399503</v>
+        <v>1.027158685431672</v>
       </c>
       <c r="E18">
-        <v>1.021422383563642</v>
+        <v>1.020936410254898</v>
       </c>
       <c r="F18">
-        <v>1.032742598188379</v>
+        <v>1.032101004842793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047312692526537</v>
+        <v>1.04695499617867</v>
       </c>
       <c r="J18">
-        <v>1.031595588750025</v>
+        <v>1.031057088819635</v>
       </c>
       <c r="K18">
-        <v>1.041542206029294</v>
+        <v>1.040524532131047</v>
       </c>
       <c r="L18">
-        <v>1.034881307746301</v>
+        <v>1.034403281638482</v>
       </c>
       <c r="M18">
-        <v>1.046019112498079</v>
+        <v>1.045387720490797</v>
       </c>
       <c r="N18">
-        <v>1.013770471133678</v>
+        <v>1.015056953761568</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045882239519535</v>
+        <v>1.045383021440289</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040512214632229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039808107220209</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022923609052112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004505778188172</v>
+        <v>1.004010302742988</v>
       </c>
       <c r="D19">
-        <v>1.027921122243599</v>
+        <v>1.026945025254933</v>
       </c>
       <c r="E19">
-        <v>1.02109903431186</v>
+        <v>1.020673592910855</v>
       </c>
       <c r="F19">
-        <v>1.032266427008633</v>
+        <v>1.0316751792316</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047127142984537</v>
+        <v>1.046803483709294</v>
       </c>
       <c r="J19">
-        <v>1.031265998115304</v>
+        <v>1.030788910432123</v>
       </c>
       <c r="K19">
-        <v>1.041212642077156</v>
+        <v>1.040252175310332</v>
       </c>
       <c r="L19">
-        <v>1.034500599506046</v>
+        <v>1.034082083397173</v>
       </c>
       <c r="M19">
-        <v>1.045488824892873</v>
+        <v>1.044906938424532</v>
       </c>
       <c r="N19">
-        <v>1.013569598503439</v>
+        <v>1.014914591279653</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04513905098454</v>
+        <v>1.04467882616003</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040285565794238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039622531916891</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022811740858558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00182329591983</v>
+        <v>1.001628981768321</v>
       </c>
       <c r="D20">
-        <v>1.025872275296583</v>
+        <v>1.025185448493216</v>
       </c>
       <c r="E20">
-        <v>1.018737111961742</v>
+        <v>1.018582991346158</v>
       </c>
       <c r="F20">
-        <v>1.029778169996378</v>
+        <v>1.029427506699485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046337526006681</v>
+        <v>1.046156612203317</v>
       </c>
       <c r="J20">
-        <v>1.029284113048429</v>
+        <v>1.029097253000841</v>
       </c>
       <c r="K20">
-        <v>1.039474952222698</v>
+        <v>1.038799441238963</v>
       </c>
       <c r="L20">
-        <v>1.032458303430817</v>
+        <v>1.03230676636223</v>
       </c>
       <c r="M20">
-        <v>1.043316864109414</v>
+        <v>1.042971919566365</v>
       </c>
       <c r="N20">
-        <v>1.012732703159816</v>
+        <v>1.014416955676239</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042895448929145</v>
+        <v>1.042622462704604</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039060875718431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038599710938387</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022400293559243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9960491100710677</v>
+        <v>0.9964671911254395</v>
       </c>
       <c r="D21">
-        <v>1.021919985177382</v>
+        <v>1.021812256457878</v>
       </c>
       <c r="E21">
-        <v>1.014235982300329</v>
+        <v>1.014621915108189</v>
       </c>
       <c r="F21">
-        <v>1.025595870444519</v>
+        <v>1.02572986333153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045103094078394</v>
+        <v>1.045190305032209</v>
       </c>
       <c r="J21">
-        <v>1.025712950171197</v>
+        <v>1.02611336382546</v>
       </c>
       <c r="K21">
-        <v>1.036497645668687</v>
+        <v>1.036391846034818</v>
       </c>
       <c r="L21">
-        <v>1.028952577340468</v>
+        <v>1.029331466761539</v>
       </c>
       <c r="M21">
-        <v>1.040108022350107</v>
+        <v>1.040239638833838</v>
       </c>
       <c r="N21">
-        <v>1.011436977999703</v>
+        <v>1.014000565613516</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040315199823669</v>
+        <v>1.040419365465096</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036959055019449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036901031713265</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021850854810731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923663970444855</v>
+        <v>0.9931772170678724</v>
       </c>
       <c r="D22">
-        <v>1.019409212843184</v>
+        <v>1.01967326852615</v>
       </c>
       <c r="E22">
-        <v>1.011385154226998</v>
+        <v>1.012117856452311</v>
       </c>
       <c r="F22">
-        <v>1.022964569845829</v>
+        <v>1.023409903391176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044311092060298</v>
+        <v>1.044571001924372</v>
       </c>
       <c r="J22">
-        <v>1.023445331830741</v>
+        <v>1.024219817503557</v>
       </c>
       <c r="K22">
-        <v>1.03460573209193</v>
+        <v>1.034864815429242</v>
       </c>
       <c r="L22">
-        <v>1.026734393410128</v>
+        <v>1.027453018764124</v>
       </c>
       <c r="M22">
-        <v>1.03809442044624</v>
+        <v>1.038531445869592</v>
       </c>
       <c r="N22">
-        <v>1.010616419662212</v>
+        <v>1.013733020012708</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03872156674983</v>
+        <v>1.039067443843374</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035607934696916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035806610100104</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021502605148792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.994308961666827</v>
+        <v>0.9948934846148978</v>
       </c>
       <c r="D23">
-        <v>1.020726529896602</v>
+        <v>1.02077899682678</v>
       </c>
       <c r="E23">
-        <v>1.01288528599299</v>
+        <v>1.013417865598189</v>
       </c>
       <c r="F23">
-        <v>1.024349369128322</v>
+        <v>1.024616097640421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044723962151846</v>
+        <v>1.044885053524416</v>
       </c>
       <c r="J23">
-        <v>1.024635433169667</v>
+        <v>1.025194558014027</v>
       </c>
       <c r="K23">
-        <v>1.035594704974059</v>
+        <v>1.035646209675511</v>
       </c>
       <c r="L23">
-        <v>1.027898730332962</v>
+        <v>1.028421350329405</v>
       </c>
       <c r="M23">
-        <v>1.039151403651424</v>
+        <v>1.039413286668723</v>
       </c>
       <c r="N23">
-        <v>1.011044085643996</v>
+        <v>1.013822729201508</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039558099670666</v>
+        <v>1.039765362761522</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036297563235401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036348529812201</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021676631414354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001813261034472</v>
+        <v>1.001626117872067</v>
       </c>
       <c r="D24">
-        <v>1.025837765632214</v>
+        <v>1.025157025783529</v>
       </c>
       <c r="E24">
-        <v>1.018702991710039</v>
+        <v>1.018555849520347</v>
       </c>
       <c r="F24">
-        <v>1.029722733122938</v>
+        <v>1.02937765694201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046307906652452</v>
+        <v>1.046131078368573</v>
       </c>
       <c r="J24">
-        <v>1.02924168918691</v>
+        <v>1.029061715093378</v>
       </c>
       <c r="K24">
-        <v>1.039425841618639</v>
+        <v>1.038756303833678</v>
       </c>
       <c r="L24">
-        <v>1.032409434185031</v>
+        <v>1.032264755589724</v>
       </c>
       <c r="M24">
-        <v>1.043247243357615</v>
+        <v>1.04290778835794</v>
       </c>
       <c r="N24">
-        <v>1.01270330345169</v>
+        <v>1.014393210560607</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042799679137849</v>
+        <v>1.042531024069292</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038998864088483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038539254095308</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022380771027219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010188870100432</v>
+        <v>1.009405466549009</v>
       </c>
       <c r="D25">
-        <v>1.03156288156003</v>
+        <v>1.03026925003273</v>
       </c>
       <c r="E25">
-        <v>1.025229983322397</v>
+        <v>1.024559126190784</v>
       </c>
       <c r="F25">
-        <v>1.035757981621392</v>
+        <v>1.034924595506921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048031426864336</v>
+        <v>1.047580989135266</v>
       </c>
       <c r="J25">
-        <v>1.034378137037801</v>
+        <v>1.03362039285059</v>
       </c>
       <c r="K25">
-        <v>1.043690214788782</v>
+        <v>1.042415168383635</v>
       </c>
       <c r="L25">
-        <v>1.037448866139145</v>
+        <v>1.036787791148203</v>
       </c>
       <c r="M25">
-        <v>1.047825449357887</v>
+        <v>1.04700390707642</v>
       </c>
       <c r="N25">
-        <v>1.014550653237404</v>
+        <v>1.015635533863889</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046423001723934</v>
+        <v>1.045772811089412</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042011112453969</v>
+        <v>1.041123061203048</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023224125875022</v>
       </c>
     </row>
   </sheetData>
